--- a/Android/architecture/AndroidAutomotive.xlsx
+++ b/Android/architecture/AndroidAutomotive.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480F7947-2AFC-4021-B790-4FC5124A86E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222BC9D7-C5B2-4CEE-B73E-86C08B74D71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{518253FD-E22F-4613-BD44-B1078C6CAFE7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{518253FD-E22F-4613-BD44-B1078C6CAFE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Arch" sheetId="1" r:id="rId1"/>
     <sheet name="HAL" sheetId="2" r:id="rId2"/>
     <sheet name="Instrument cluster" sheetId="3" r:id="rId3"/>
+    <sheet name="Map" sheetId="4" r:id="rId4"/>
+    <sheet name="Context" sheetId="5" r:id="rId5"/>
+    <sheet name="BuildSystem" sheetId="6" r:id="rId6"/>
+    <sheet name="Handler" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="133">
   <si>
     <t xml:space="preserve"> CarAudioManager(Car car, IBinder service)</t>
   </si>
@@ -193,13 +197,570 @@
   </si>
   <si>
     <t>ClusterRenderingService.java</t>
+  </si>
+  <si>
+    <t>Những cầu trúc dữ liệu khuyên dùng</t>
+  </si>
+  <si>
+    <t>ArrayMap&lt;K,V&gt; in place of HashMap&lt;K,V&gt;</t>
+  </si>
+  <si>
+    <t>ArraySet&lt;K,V&gt; in place of HashSet&lt;K,V&gt;</t>
+  </si>
+  <si>
+    <t>SparseArray&lt;V&gt; in place of HashMap&lt;Integer,V&gt;</t>
+  </si>
+  <si>
+    <t>SparseBooleanArray in place of HashMap&lt;Integer,Boolean&gt;</t>
+  </si>
+  <si>
+    <t>SparseIntArray in place of HashMap&lt;Integer,Integer&gt;</t>
+  </si>
+  <si>
+    <t>SparseLongArray in place of HashMap&lt;Integer,Long&gt;</t>
+  </si>
+  <si>
+    <t>LongSparseArray&lt;V&gt; in place of HashMap&lt;Long,V&gt;</t>
+  </si>
+  <si>
+    <t>https://viblo.asia/p/toi-uu-hoa-viec-su-dung-arraymap-va-sparsearray-trong-ung-dung-android-gkyzEoPoRnv</t>
+  </si>
+  <si>
+    <t>Suggest using</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <r>
+      <t>Create Singleton object which require a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Context</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Should use</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Because if we use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>ActivityContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> here, the Singleton object will keep the reference to activity and the activity </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>will not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> be garbage collected =&gt; memory leak</t>
+    </r>
+  </si>
+  <si>
+    <t>Shouldn't use</t>
+  </si>
+  <si>
+    <r>
+      <t>Use a object in Library which require a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Context</t>
+    </r>
+  </si>
+  <si>
+    <t>Should use</t>
+  </si>
+  <si>
+    <t>Do some thing with GUI</t>
+  </si>
+  <si>
+    <r>
+      <t>Almost can not do</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, it will return WindowManager$BadTokenException: Unable to add window -- token null is not for an application. It is not complete </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> that supporting everything that Activity does</t>
+    </r>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Show Toast</t>
+  </si>
+  <si>
+    <r>
+      <t>Same</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Currently I think we can use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ApplicationContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ActivityContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> because no document say which is better but I think we should use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ActivityContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> because some good developer say only use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ApplicationContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> when we really need it (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2B6DAD"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://stackoverflow.com/a/5228494/5381331</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>) some post say </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ApplicationContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> may crash in some few device(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2B6DAD"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://stackoverflow.com/a/36032279/5381331</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>) and some developer say Toast is is UI so we should use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ActivityContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> (however in some case we show Toast outside of Activity so we need </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ApplicationContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>). Conclusion, feel free to use both of theme is same</t>
+    </r>
+  </si>
+  <si>
+    <t>Same</t>
+  </si>
+  <si>
+    <t>Load resource</t>
+  </si>
+  <si>
+    <t>The same with Toast</t>
+  </si>
+  <si>
+    <r>
+      <t>Normal object which require a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> (tied with Activity life cycle)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Shouldn't use</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> because it simple </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF1B1B1B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>not necessary and suitable</t>
+    </r>
+  </si>
+  <si>
+    <t>AndroidManifest</t>
+  </si>
+  <si>
+    <t>build.gradle</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/guide/topics/manifest/manifest-intro</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/studio/build</t>
+  </si>
+  <si>
+    <t>Android.bp</t>
+  </si>
+  <si>
+    <t>Android.mk</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/ndk/guides/android_mk</t>
+  </si>
+  <si>
+    <t>https://source.android.com/setup/build</t>
+  </si>
+  <si>
+    <t>https://docs.bazel.build/versions/main/be/overview.html</t>
+  </si>
+  <si>
+    <t>https://android.googlesource.com/platform/build/+/master/Changes.md</t>
+  </si>
+  <si>
+    <t>https://android.googlesource.com/platform/build/soong/</t>
+  </si>
+  <si>
+    <t>https://blog.spacepatroldelta.com/a?ID=00001-0c67f178-ce73-4544-914f-d0c1c8c42fa4</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>https://android.googlesource.com/platform/build/soong/+/refs/heads/master/README.md</t>
+  </si>
+  <si>
+    <t>https://note.qidong.name/demo/soong_build/</t>
+  </si>
+  <si>
+    <t>OK (full)</t>
+  </si>
+  <si>
+    <t>https://ci.android.com/builds/submitted/8944109/linux/latest/soong_build.html</t>
+  </si>
+  <si>
+    <t>★Difference between CMake and NDK-build in android studio project - Android</t>
+  </si>
+  <si>
+    <t>★summary</t>
+  </si>
+  <si>
+    <t>C/C++ support recommend:</t>
+  </si>
+  <si>
+    <t>- libc++ instead of libstdc++(STL)</t>
+  </si>
+  <si>
+    <t>- CMake instead of GNU Make (Android Studio環境-Gradle)</t>
+  </si>
+  <si>
+    <t>★Android.bp</t>
+  </si>
+  <si>
+    <t>java_import</t>
+  </si>
+  <si>
+    <t>cc_prebuilt_library_shared</t>
+  </si>
+  <si>
+    <t>cc_defaults</t>
+  </si>
+  <si>
+    <t>cc_library_headers</t>
+  </si>
+  <si>
+    <t>cc_test</t>
+  </si>
+  <si>
+    <t>cc_fuzz</t>
+  </si>
+  <si>
+    <t>android_robolectric_test</t>
+  </si>
+  <si>
+    <t>android_library_import</t>
+  </si>
+  <si>
+    <t>android_test_helper_app</t>
+  </si>
+  <si>
+    <t>android_app_certificate</t>
+  </si>
+  <si>
+    <t>java_test_helper_library</t>
+  </si>
+  <si>
+    <t>java_library_static</t>
+  </si>
+  <si>
+    <t>★Android.mk</t>
+  </si>
+  <si>
+    <t>- Android.bp (Soong) instead of Android.mk (kati)(without gradle)</t>
+  </si>
+  <si>
+    <t>android_app → .APK</t>
+  </si>
+  <si>
+    <t>java_library→.JAR</t>
+  </si>
+  <si>
+    <t>cc_binary→runable file (same .exe in windows)</t>
+  </si>
+  <si>
+    <t>cc_library_static→.a</t>
+  </si>
+  <si>
+    <t>cc_library_shared→.so</t>
+  </si>
+  <si>
+    <t>cc_library→.so and/or .a</t>
+  </si>
+  <si>
+    <t>aidl_interface</t>
+  </si>
+  <si>
+    <t>genrule</t>
+  </si>
+  <si>
+    <t>filegroup</t>
+  </si>
+  <si>
+    <t>android_test→.APK +AndroidTest.xml</t>
+  </si>
+  <si>
+    <t>gensrcs</t>
+  </si>
+  <si>
+    <t>android_library→.AAR</t>
+  </si>
+  <si>
+    <t>★Android 12</t>
+  </si>
+  <si>
+    <t>https://viblo.asia/p/android-handler-looper-va-handlerthread-hoat-dong-nhu-the-nao-OeVKBy1Y5kW</t>
+  </si>
+  <si>
+    <t>1.Handler</t>
+  </si>
+  <si>
+    <t>2. Thread pool</t>
+  </si>
+  <si>
+    <t>https://icancodeit.wordpress.com/2019/08/04/java-concurrency-executorservice-va-scheduledexecutorservice-trong-java/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,8 +782,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1B1B1B"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.95"/>
+      <color rgb="FF1B1B1B"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF1B1B1B"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1B1B1B"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF2B6DAD"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,8 +851,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -244,12 +878,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD6D6D7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD6D6D7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD6D6D7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD6D6D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -259,6 +908,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -367,13 +1036,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
+      <xdr:colOff>390072</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>99787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
+      <xdr:colOff>450851</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>69851</xdr:rowOff>
     </xdr:to>
@@ -390,8 +1059,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10450286" y="1369787"/>
-          <a:ext cx="5412921" cy="5594350"/>
+          <a:off x="10332358" y="1369787"/>
+          <a:ext cx="5530850" cy="5594350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -427,7 +1096,19 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>- ServiceManager.addService(ICarImpl)</a:t>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ServiceManager.addService</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>(ICarImpl)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -636,7 +1317,19 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>IBinder service=Servicemanager.getService(car_service) </a:t>
+            <a:t>IBinder service=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Servicemanager.getService</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>(car_service) </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1213,7 +1906,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> mCar = Car.createCar()</a:t>
+            <a:t> mCar = Car.createCar(mContext)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1501,6 +2194,64 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>236764</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>86179</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>170999</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Connector: Elbow 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2448E859-E611-6088-469A-242CDF324853}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="10786835" y="3896179"/>
+          <a:ext cx="10886" cy="2443391"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1599963"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1510,13 +2261,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1573,13 +2324,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1636,14 +2387,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>120649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>164353</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1658,8 +2409,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7524750" y="5829300"/>
-          <a:ext cx="2647950" cy="990600"/>
+          <a:off x="7776882" y="8106708"/>
+          <a:ext cx="2659903" cy="1351057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1691,6 +2442,34 @@
             <a:t>IVehicle.java</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>- subscribe</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>- unsubcribe</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>- setvalue</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>- getValue</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -1699,13 +2478,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>187325</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>130175</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1754,15 +2533,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>130175</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:colOff>130176</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>358775</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>120649</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1780,8 +2559,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6791325" y="5346700"/>
-          <a:ext cx="2057400" cy="482600"/>
+          <a:off x="7040470" y="7618879"/>
+          <a:ext cx="2066364" cy="487829"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1811,13 +2590,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1874,13 +2653,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>187325</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1930,13 +2709,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1993,13 +2772,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>187325</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2046,13 +2825,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>187325</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2101,15 +2880,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>104589</xdr:rowOff>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>177054</xdr:rowOff>
+      <xdr:colOff>463549</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2124,8 +2903,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7552765" y="8695765"/>
-          <a:ext cx="2659903" cy="1006289"/>
+          <a:off x="7776881" y="13745882"/>
+          <a:ext cx="2659903" cy="1262529"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2164,6 +2943,370 @@
             <a:t>- getVehicle</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>android.hardware.automotive.vehicle.V2_0.IVehicle.getService(instanceName)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>455706</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104588</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5202D4CA-AA6E-4131-B5CF-DABB9B13EC50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12012706" y="7814235"/>
+          <a:ext cx="3316941" cy="1441824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Android 13:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IVehicle</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> -&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AidlVehicleStub.java extends VehicleStub.java</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-IVehicle getAidlVehicle()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"android.hardware.automotive.vehicle.IVehicle/default"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>463551</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>20171</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F4280E-1FAC-4160-8C24-D2A37F86BEBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7776883" y="12274177"/>
+          <a:ext cx="2659903" cy="1006288"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ICarimpl</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>141940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>463549</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>27640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98387A0D-6CB2-496F-BDCF-3AE945AF4B0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7776881" y="10787528"/>
+          <a:ext cx="2659903" cy="1006288"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>VehicleHal extends IVehicleCallback.Stub</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>261471</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>52293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>102345</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1675285-5DC7-47D5-8669-CF5D16267F1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7784353" y="9905999"/>
+          <a:ext cx="2637117" cy="797111"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>HalClient</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>- mVehicle</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -2171,34 +3314,202 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>358776</xdr:colOff>
+      <xdr:colOff>354853</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>164353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>52293</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0405A7-5FCD-4D1A-BB18-C76DEB012EE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9102912" y="9457765"/>
+          <a:ext cx="3922" cy="448234"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>354853</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>102345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>358774</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>141940</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1F9329-304A-4B8A-A10B-ECE2EFE4587C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="2"/>
+          <a:endCxn id="20" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9102912" y="10703110"/>
+          <a:ext cx="3921" cy="226359"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>358774</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>20171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>358776</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>104589</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{958F836C-D49B-4DC8-A147-1D6C02F0E608}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1758FB77-B167-4308-B38B-C29A492EE562}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
+          <a:stCxn id="19" idx="2"/>
           <a:endCxn id="24" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9106833" y="13280465"/>
+          <a:ext cx="2" cy="465417"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>358774</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>27640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>358776</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F95C76F-7460-4E3F-8BE5-2FF2F1875A7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="2"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="8882717" y="7850468"/>
-          <a:ext cx="0" cy="845297"/>
+          <a:off x="9106833" y="11793816"/>
+          <a:ext cx="2" cy="480361"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2231,15 +3542,98 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1835727</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>46182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>184728</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>23091</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="Rectangle 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F52947C-8B29-452D-97F0-321E2CF9E08D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1835727" y="47151637"/>
+          <a:ext cx="10702637" cy="3117272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MeterService extends VenderService</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>115454</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>138544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>34637</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>103909</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2311,13 +3705,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>455385</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>99787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>471714</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>21772</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2378,13 +3772,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>399676</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>126465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2441,13 +3835,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>553357</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>81642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>426357</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2504,13 +3898,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>83775</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>137138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>111738</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2581,13 +3975,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>318037</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>62966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>535214</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>172358</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2647,13 +4041,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>385537</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>117934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>208643</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>81646</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2707,13 +4101,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>233590</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>188231</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>115658</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2767,13 +4161,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>108856</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>36286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>117928</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2889,13 +4283,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>498930</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>72571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>580571</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2955,13 +4349,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>36287</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>172358</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>462643</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>36286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3021,13 +4415,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>161472</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>243113</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>79828</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3087,13 +4481,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>581397</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>162461</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>423059</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>45768</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3153,13 +4547,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>36284</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>9072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>154214</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>77106</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3213,13 +4607,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>4122</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>105559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>458572</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>134081</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3235,7 +4629,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20312577" y="6386286"/>
+          <a:off x="20312577" y="8233559"/>
           <a:ext cx="5349722" cy="2799431"/>
           <a:chOff x="14142356" y="6204857"/>
           <a:chExt cx="5316736" cy="2749951"/>
@@ -3330,13 +4724,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>404091</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>115456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>323273</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>173185</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3402,13 +4796,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>450272</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>57727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>556998</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>32327</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3550,13 +4944,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>392545</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>11546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>499271</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3775,13 +5169,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>163944</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>129308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>270670</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>80818</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3901,13 +5295,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>477980</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>131618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>584706</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>106218</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4049,7 +5443,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>346364</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>46182</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4558748" cy="609013"/>
@@ -4187,7 +5581,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>323273</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>138546</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4115037" cy="264560"/>
@@ -4258,13 +5652,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>184727</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>138544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>369455</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>138544</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4350,7 +5744,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>369454</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>69272</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3200171" cy="264560"/>
@@ -4408,13 +5802,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>23090</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>427182</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4461,13 +5855,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>161636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>138545</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>161636</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4514,13 +5908,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>300182</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>23091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>219363</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4567,13 +5961,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>542636</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>138546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>461818</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>80818</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4620,7 +6014,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>144069</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>87069</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4020396" cy="436786"/>
@@ -4736,13 +6130,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>715818</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>115454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2470727</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>173182</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4808,13 +6202,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>150090</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>115454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>69272</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>173182</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4880,13 +6274,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>427181</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>115454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>346363</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>173182</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4952,13 +6346,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>611908</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>150090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>46181</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5024,13 +6418,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>115454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>300181</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>173183</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5096,13 +6490,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1563357</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>173182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1593273</xdr:colOff>
-      <xdr:row>246</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>138546</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5148,13 +6542,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>577272</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>607188</xdr:colOff>
-      <xdr:row>246</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>150091</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5198,13 +6592,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>346363</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>150091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>376279</xdr:colOff>
-      <xdr:row>246</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>115455</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5248,13 +6642,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>577273</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>173182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>607189</xdr:colOff>
-      <xdr:row>246</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>138546</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5298,13 +6692,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>577272</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>161636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>607188</xdr:colOff>
-      <xdr:row>246</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5348,13 +6742,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>588818</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>115455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>6825</xdr:colOff>
-      <xdr:row>246</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>80819</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5398,13 +6792,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1662546</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>57728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>11546</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>57728</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5451,13 +6845,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>369454</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>115454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>288637</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>173182</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5523,13 +6917,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>565728</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>150091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>595644</xdr:colOff>
-      <xdr:row>246</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>115455</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5573,13 +6967,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>34636</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>150092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>230909</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>45197</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5595,8 +6989,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9328727" y="28598092"/>
-          <a:ext cx="4479637" cy="264560"/>
+          <a:off x="9328727" y="30445365"/>
+          <a:ext cx="4479637" cy="264559"/>
           <a:chOff x="6569364" y="26750819"/>
           <a:chExt cx="4479637" cy="264560"/>
         </a:xfrm>
@@ -5694,13 +7088,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>92363</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>20507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>588818</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>46182</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5747,13 +7141,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>23091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>23090</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>46182</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5800,7 +7194,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>450272</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>115455</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3553217" cy="264560"/>
@@ -5858,7 +7252,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>568036</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>175492</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2785955" cy="609013"/>
@@ -5953,13 +7347,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>103909</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>173182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>496455</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>70097</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6075,13 +7469,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>144319</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>34639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>259774</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>132774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6138,13 +7532,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>473363</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>46182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>486261</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>103910</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6191,7 +7585,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1317031</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>138545</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2983317" cy="436786"/>
@@ -6263,13 +7657,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>590845</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>57727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>590845</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>57728</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6316,7 +7710,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>588819</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>69272</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4544834" cy="781240"/>
@@ -6404,6 +7798,3837 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>IAppFocusListenerImpl.onAppFocusChanged</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>519545</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>14362</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>80818</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Rectangle 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F43BF88-F8B9-4184-869E-E4FF9AB2E94E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8589818" y="48952728"/>
+          <a:ext cx="3166271" cy="1743363"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ClusterHomeService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>103908</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>210634</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Rectangle 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F8B94AF-A6AD-4FAE-AE84-3B95302769C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2666999" y="52220090"/>
+          <a:ext cx="3166271" cy="1267691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ClusterNavigationService</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2816</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Rectangle 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD84C04-AE33-4B5F-AF63-F1CD983A165F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6742545" y="52220090"/>
+          <a:ext cx="3166271" cy="1267691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CarOccupantZoneService</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>update mClusterDisplayId</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>173181</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>80818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>279906</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Rectangle 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C105D28-AE7B-4995-9D33-D90463E927CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10691090" y="52173909"/>
+          <a:ext cx="3166271" cy="1267691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FixedActivityService</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>startFixedActivityModeForDisplayAndUser</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>stopFixedActivityMode</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>80819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>556999</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>55419</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Rectangle 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{072062BB-8DC5-48C7-83BE-08ED2AAD2ED4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14639637" y="52173910"/>
+          <a:ext cx="3166271" cy="1267691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ClusterHalService.java</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- ClusterHalEventCallback.onSwitchUi</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- o</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ClusterHalEventCallback.o</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>nDisplayState</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504701</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>98137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>3641</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>175655</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Rectangle 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58AF77C4-09BC-42CC-9DBD-29A9133769DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8541987" y="52349566"/>
+          <a:ext cx="3145654" cy="1710375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ClusterHomeManager </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- ClusterStateListener.onClusterStateChanged(ClusterState state, @Config int changes)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- ClusterNavigationStateListener.onNavigationState(byte[] navigationState)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>150092</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>103907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>461819</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Rectangle 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3724782-A71C-4EDD-B1CB-0A00838BB16B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2713183" y="51273362"/>
+          <a:ext cx="3983181" cy="2101274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CarAppFocusmanager</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- OnAppFocusChangedListener.onAppFocusChanged(@AppFocusType int appType, boolean active)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- OnAppFocusOwnershipCallback.onAppFocusOwnershipLost(@AppFocusType int appType)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- OnAppFocusOwnershipCallback.onAppFocusOwnershipGranted(@AppFocusType int appType)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266954</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>80818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>199743</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>80819</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAB69353-4B46-A1EB-D455-01586BB033C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="0"/>
+          <a:endCxn id="64" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10127597" y="57230818"/>
+          <a:ext cx="6010646" cy="1451430"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1535613" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C75E79-2EDA-8DB4-BBAF-FF99081E321D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14360071" y="58247643"/>
+          <a:ext cx="1535613" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>onClusterStateChanged</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>461164</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>80818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266954</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76874711-5756-69A6-5C63-7A8C4D088870}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="0"/>
+          <a:endCxn id="64" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4243950" y="57230818"/>
+          <a:ext cx="5883647" cy="1497610"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>308428</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>154215</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2081211" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CCEE49F-69B8-BBE7-4CB1-8FC9EC3A8FE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5306785" y="57848501"/>
+          <a:ext cx="2081211" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>onNavigationStateChanged</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>notifyNavContextOwnerChanged</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>254171</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>175655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266954</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CF253F-B844-EE5F-739C-67D3A999473F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="0"/>
+          <a:endCxn id="76" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10114814" y="54059941"/>
+          <a:ext cx="12783" cy="1457203"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>263072</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>117928</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5270500" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="TextBox 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{597D5A29-AB12-45F8-9B56-908636FA14C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10123715" y="51099357"/>
+          <a:ext cx="5270500" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ClusterStateListener.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>onClusterStateChanged</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ClusterNavigationStateListener.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>onNavigationState</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>72571</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>145143</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2035173" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="TextBox 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3AF2AE-A261-1C8F-A378-E07FD1BB4801}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8109857" y="58020857"/>
+          <a:ext cx="2035173" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>onOccupantZoneConfigChanged</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>initClusterDisplay()</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>255408</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>80818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266954</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Straight Arrow Connector 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B894C5D4-7AA7-497E-87F8-7263E275D290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="72" idx="0"/>
+          <a:endCxn id="64" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8292694" y="57230818"/>
+          <a:ext cx="1834903" cy="1497610"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266954</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>80818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>530437</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>80818</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Straight Arrow Connector 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761EBC24-5745-461A-B9FD-DB7D89751BFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="2"/>
+          <a:endCxn id="73" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10127597" y="57230818"/>
+          <a:ext cx="2086840" cy="1451429"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>489856</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>72572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>596582</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>150090</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="Rectangle 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B5C224C-4F1E-46A8-ACE6-A8A88068A420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8527142" y="49239715"/>
+          <a:ext cx="3145654" cy="1710375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MyApp</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>239326</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>150090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>254171</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>98137</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Straight Arrow Connector 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C6DC60-0704-49B0-8F03-2D8F8CA63DCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="0"/>
+          <a:endCxn id="87" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10099969" y="50950090"/>
+          <a:ext cx="14845" cy="1399476"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5270500" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="TextBox 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFCE543E-4EBE-42AB-B353-E1AEA91DBE4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10132786" y="54610000"/>
+          <a:ext cx="5270500" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IClusterStateListenerImpl.onClusterStateChanged</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IClusterNavigationStateListenerImpl.onNavigationStateChanged</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>305956</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>150090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>237265</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>103907</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="Straight Arrow Connector 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E8841D-1B76-461F-9B06-A628ED863F12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="0"/>
+          <a:endCxn id="87" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4704774" y="51873726"/>
+          <a:ext cx="5438491" cy="1246908"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>92365</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>92364</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2147455" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="TextBox 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D195AE63-D194-4219-A8B7-265CC8D23EAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6326910" y="52185455"/>
+          <a:ext cx="2147455" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>onAppFocusChanged</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>197556</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>108183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0A8707-52ED-DCDF-E138-8C4E89F0267D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6483683" cy="4527783"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>636485</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>162854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74893A6E-EB01-4D12-8EBF-4697E4B69B31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14487071"/>
+          <a:ext cx="6913914" cy="3083854"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>158547</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>140339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>335644</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>154215</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB3B5C13-ECD9-43A1-87D0-100B0AE43C97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8077904" y="14464125"/>
+          <a:ext cx="6744811" cy="3098161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>142232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>716641</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>112732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F4E5764-5471-4C9D-90EF-40C9938FA2B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18276018"/>
+          <a:ext cx="6994070" cy="3599071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>97118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{145E609E-C961-4BA7-8839-D80620383883}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8109858" y="18230904"/>
+          <a:ext cx="6703785" cy="3576810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>752928</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>180220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A315ECAB-1AC3-9588-A180-C3A3F9DD28CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22669501"/>
+          <a:ext cx="7030357" cy="3808790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>158378</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>154783</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D44757-B75A-0D1B-74B1-0E4E4AC80AEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7473578" cy="3837783"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400674</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75AF900A-F94A-B734-5B49-F90249ACF2A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5073630"/>
+          <a:ext cx="7715874" cy="3282970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>488951</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEBDD1A4-C7AD-77BD-8A81-3459E2FEFB2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="8470900"/>
+          <a:ext cx="7804150" cy="656785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>589643</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>172357</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="Group 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9072EC7A-C933-440A-ACE7-4136EDA7066C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="598714" y="19619366"/>
+          <a:ext cx="9792341" cy="4085344"/>
+          <a:chOff x="263071" y="9053285"/>
+          <a:chExt cx="9715500" cy="3973285"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Rectangle 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72667F35-292F-62D4-6491-9C382CC78C0E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="263071" y="9053285"/>
+            <a:ext cx="9715500" cy="3973285"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>AOSP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>環境 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(use command</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> line, have not Gradle)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>- do not use CMake ??? (but can use cmake command to build cmake project to ninja project)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="Rectangle 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05951940-D706-3FB6-3744-C97D43645327}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="995136" y="9797143"/>
+            <a:ext cx="3849914" cy="2791279"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Soong (Blueprint)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Adnroid.bp</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="Rectangle 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2507CF66-0A85-A6DF-79D2-5B9EB39E76A9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5896430" y="9857921"/>
+            <a:ext cx="3513364" cy="2803979"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Kati (GNU make)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> Android.mk</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>553357</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="Group 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FE45E2-18BC-BF68-F262-ED1653F6981F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="553357" y="9962028"/>
+          <a:ext cx="9792341" cy="7621068"/>
+          <a:chOff x="553357" y="9679213"/>
+          <a:chExt cx="9715500" cy="7402287"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="13" name="Group 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B350BDE-37DC-9175-5CFE-297A6D2D5A56}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="553357" y="9679213"/>
+            <a:ext cx="9715500" cy="7402287"/>
+            <a:chOff x="263071" y="9053284"/>
+            <a:chExt cx="9715500" cy="7402287"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="Rectangle 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E1B5BD-ED84-40AB-A4C2-1CEC1BA1DB60}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="263071" y="9053284"/>
+              <a:ext cx="9715500" cy="7402287"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Android Studio</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>環境</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>- Add C/C++ souce, library</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="Rectangle 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC28FD1D-194C-256F-D9AE-62409D30DC39}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4243614" y="9153979"/>
+              <a:ext cx="1690007" cy="757464"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>Gradle</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>module's build.gradle</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="Rectangle 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AAB7EAD-BEC6-4E62-906E-084C4622417F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="931636" y="11248571"/>
+              <a:ext cx="3849914" cy="2791279"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>CMake (-&gt; GNU Make - gcc)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>- CMakeList.txt</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>// Encapsulates your external native build configurations.</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>  externalNativeBuild {</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+              </a:br>
+              <a:br>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>    // Encapsulates your CMake build configurations.</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>    </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>cmake</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> {</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+              </a:br>
+              <a:br>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>      // Provides a relative path to your CMake build script.</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>      path "path/to/CMakeLists.txt"</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>    }</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>  }</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="Rectangle 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D015B79C-C41F-496C-8D41-2D0C3B822E9F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5733144" y="11236778"/>
+              <a:ext cx="3513364" cy="2803979"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>ndk-build (-&gt; GNU Make - gcc)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>- Android.mk</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>- Application.mk</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>// Encapsulates your external native build configurations.</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>  externalNativeBuild {</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+              </a:br>
+              <a:br>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>    // Encapsulates your ndk-build build configurations.</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>    </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:solidFill>
+                    <a:srgbClr val="FFC000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>ndkBuild</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> {</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+              </a:br>
+              <a:br>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>      // Provides a relative path to your gnu</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" baseline="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> make</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> build script.</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>      path "path/to/Android.mk"</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>    }</a:t>
+              </a:r>
+              <a:br>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>  }</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F092C2C3-901F-C2AF-08F7-1B4BA7BF81AA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="5" idx="2"/>
+              <a:endCxn id="6" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="2856593" y="9911443"/>
+              <a:ext cx="2231118" cy="1337128"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9EE7FED-E608-4CE0-9710-9205CAF1C966}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="5" idx="2"/>
+              <a:endCxn id="8" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5088618" y="9911443"/>
+              <a:ext cx="2401208" cy="1325335"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="Rectangle 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{057CE802-0C06-4C7F-A6FE-A6E862992AE6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4481285" y="15947571"/>
+            <a:ext cx="1690007" cy="757464"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>NDK</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF85AEF1-99A5-4843-BB0D-CECE0990AC64}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="6" idx="2"/>
+            <a:endCxn id="24" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3146879" y="14665779"/>
+            <a:ext cx="2179410" cy="1281792"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE0BEF6-2923-4680-975B-06654D76BD64}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="8" idx="2"/>
+            <a:endCxn id="24" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="5326289" y="14666686"/>
+            <a:ext cx="2453823" cy="1280885"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390072</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>154214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>508001</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Speech Bubble: Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A35D28A-37E6-A9CC-80C2-3991EE5C5419}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="997858" y="10858500"/>
+          <a:ext cx="1333500" cy="417286"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -14030"/>
+            <a:gd name="adj2" fmla="val 151631"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>★</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>recommend</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>61560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Understanding HandlerThreads on Android | by Swechha Prakash | Medium">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEEBC179-2389-17E9-9F0E-996816CBF567}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="641350" y="596900"/>
+          <a:ext cx="4025900" cy="2963510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4504438" cy="3945183"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C08322D9-5384-FD52-A2B6-35022F4D8BBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5289550" y="711200"/>
+          <a:ext cx="4504438" cy="3945183"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. Create handler</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>HandlerThread handlerThread = new HandlerThread("MyHandlerThread"); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>handlerThread.start(); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Handler handler = new Handler(handlerThread.getLooper());</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>★</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Looper of main thread: Looper.getMainLooper ()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. Usage</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>handler.post(new Runnable() { </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	@Override </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      public void run() { </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              doSomething()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     } </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>});</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OR</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>handler.post(()-&gt;doSomething());</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>96366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD889E9A-6443-44AE-0EEF-9B58A05BDC73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5436716"/>
+          <a:ext cx="5670550" cy="3167534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>67308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142694</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="ExecutorService in Java - Java ExecutorService Examples - TechVidvan">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B81B82-1822-E493-301D-89A7AC3E5FEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6172199" y="5775958"/>
+          <a:ext cx="4943295" cy="2586991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11019299" cy="1297919"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FAA73A-3CDF-1925-23F5-F0E4E64D2C53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="336550" y="9067800"/>
+          <a:ext cx="11019299" cy="1297919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Return an Executor that will run enqueued tasks on the main thread associated with this context. This is the thread used to dispatch calls to application components (activities, services, etc).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public Executor getMainExecutor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>() {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// This is pretty inefficient, which is why ContextImpl overrides it</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>return new </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>HandlerExecutor(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>new </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Handler(getMainLooper()));</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6711,8 +11936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50281EC2-2146-458C-A9B1-32588ED0AD3E}">
   <dimension ref="A40:Q51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6806,10 +12031,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A762D8-D5E0-417B-8E3B-22F80E7BD3DF}">
-  <dimension ref="A9:B29"/>
+  <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6818,136 +12043,141 @@
     <col min="2" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.6">
+      <c r="A2" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
+      <c r="A9" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>8</v>
+      <c r="A20" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>21</v>
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B27" r:id="rId1" xr:uid="{8678AE85-CA3F-4AC9-8D21-0CE3F94CCABD}"/>
-    <hyperlink ref="B26" r:id="rId2" xr:uid="{712E2E4C-F629-40D0-9803-B829EF5F0FA7}"/>
-    <hyperlink ref="B18" r:id="rId3" xr:uid="{BCE3A957-EA78-4DD6-B72D-859F6E0D7868}"/>
-    <hyperlink ref="B15" r:id="rId4" xr:uid="{8968826B-A80A-4AD2-AD93-50F97D641D55}"/>
-    <hyperlink ref="B21" r:id="rId5" display="https://cs.android.com/android/platform/superproject/+/master:out/soong/.intermediates/hardware/interfaces/automotive/vehicle/2.0/android.hardware.automotive.vehicle-V2.0-java/android_common/xref/srcjars.xref/android/hardware/automotive/vehicle/V2_0/IVehicle.java" xr:uid="{90DAAF61-13D7-4DD1-8735-012D95BD4493}"/>
-    <hyperlink ref="B28" r:id="rId6" xr:uid="{1684A004-2576-4603-AE22-9A8B75BD8B20}"/>
-    <hyperlink ref="B10" r:id="rId7" xr:uid="{54CD8EBF-24C3-445E-91D0-5ECFF4554B17}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{79FD9BE8-B3BC-41C2-89B0-F66CED6C5FD8}"/>
-    <hyperlink ref="B29" r:id="rId9" xr:uid="{13CEC901-1666-477D-A7F5-6B200023A3E9}"/>
-    <hyperlink ref="B22" r:id="rId10" display="https://cs.android.com/android/platform/superproject/+/master:out/soong/.intermediates/hardware/interfaces/automotive/vehicle/2.0/android.hardware.automotive.vehicle-V2.0-java/android_common/xref/srcjars.xref/android/hardware/automotive/vehicle/V2_0/IVehicleCallback.java" xr:uid="{67A98A50-3912-4C76-A846-720058982147}"/>
-    <hyperlink ref="B19" r:id="rId11" xr:uid="{9E656B64-2673-46D3-9635-06662EC5F61A}"/>
+    <hyperlink ref="B23" r:id="rId1" xr:uid="{8678AE85-CA3F-4AC9-8D21-0CE3F94CCABD}"/>
+    <hyperlink ref="B22" r:id="rId2" xr:uid="{712E2E4C-F629-40D0-9803-B829EF5F0FA7}"/>
+    <hyperlink ref="B14" r:id="rId3" xr:uid="{BCE3A957-EA78-4DD6-B72D-859F6E0D7868}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{8968826B-A80A-4AD2-AD93-50F97D641D55}"/>
+    <hyperlink ref="B17" r:id="rId5" display="https://cs.android.com/android/platform/superproject/+/master:out/soong/.intermediates/hardware/interfaces/automotive/vehicle/2.0/android.hardware.automotive.vehicle-V2.0-java/android_common/xref/srcjars.xref/android/hardware/automotive/vehicle/V2_0/IVehicle.java" xr:uid="{90DAAF61-13D7-4DD1-8735-012D95BD4493}"/>
+    <hyperlink ref="B24" r:id="rId6" xr:uid="{1684A004-2576-4603-AE22-9A8B75BD8B20}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{54CD8EBF-24C3-445E-91D0-5ECFF4554B17}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{79FD9BE8-B3BC-41C2-89B0-F66CED6C5FD8}"/>
+    <hyperlink ref="B25" r:id="rId9" xr:uid="{13CEC901-1666-477D-A7F5-6B200023A3E9}"/>
+    <hyperlink ref="B18" r:id="rId10" display="https://cs.android.com/android/platform/superproject/+/master:out/soong/.intermediates/hardware/interfaces/automotive/vehicle/2.0/android.hardware.automotive.vehicle-V2.0-java/android_common/xref/srcjars.xref/android/hardware/automotive/vehicle/V2_0/IVehicleCallback.java" xr:uid="{67A98A50-3912-4C76-A846-720058982147}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{9E656B64-2673-46D3-9635-06662EC5F61A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
@@ -6957,10 +12187,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830DC85E-A723-4C88-AF7E-DD59437A8500}">
-  <dimension ref="A2:B16"/>
+  <dimension ref="A7:B259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AD131" sqref="AD131"/>
+    <sheetView topLeftCell="A274" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O342" sqref="O342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6969,76 +12199,885 @@
     <col min="2" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="7" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="9" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B9" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
+    <row r="10" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="16"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
+    <row r="11" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="16"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
+    <row r="12" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="16"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
+    <row r="13" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="16"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="2"/>
+    <row r="14" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="16"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="15" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="16" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B16" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="17" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B17" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="18" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="22" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B22" s="16" t="s">
         <v>41</v>
       </c>
     </row>
+    <row r="23" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="16"/>
+    </row>
+    <row r="24" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="16"/>
+    </row>
+    <row r="25" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="16"/>
+    </row>
+    <row r="26" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="16"/>
+    </row>
+    <row r="27" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="83" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="85" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="86" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="87" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="88" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="89" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="90" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="91" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="92" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="93" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="94" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="95" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="96" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="103" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="106" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="110" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="111" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="113" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="114" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="115" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="116" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="117" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="118" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="119" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="121" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="122" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="123" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="124" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="125" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="127" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="128" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="129" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="130" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="131" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="132" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="133" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="134" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="135" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="136" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="137" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="138" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="140" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="141" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="142" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="143" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="144" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="145" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="146" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="147" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="148" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="149" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="150" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="151" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="152" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="153" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="154" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="155" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="156" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="157" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="158" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="159" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="160" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="161" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="162" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="163" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="164" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="165" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="166" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="167" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="168" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="169" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="170" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="171" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="172" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="173" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="174" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="175" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="176" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="177" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="178" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="179" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="180" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="181" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="182" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="183" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="184" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="185" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="186" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="187" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="188" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="189" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="190" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="191" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="192" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="193" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="194" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="195" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="196" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="197" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="198" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="199" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="200" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="201" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="202" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="203" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="204" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="205" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="206" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="207" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="208" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="209" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="210" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="211" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="212" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="213" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="214" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="215" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="216" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="217" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="218" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="219" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="220" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="221" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="222" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="223" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="224" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="225" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="226" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="227" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="228" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="229" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="230" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="231" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="232" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="233" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="234" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="235" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="236" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="237" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="238" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="239" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="240" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="241" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="242" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="243" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="244" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="245" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="246" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="247" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="248" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="249" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="250" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="251" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="252" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="253" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="254" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="255" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="256" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="257" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="258" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="259" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" xr:uid="{53C95C67-65D2-4BC6-82B4-AC756211F74B}"/>
-    <hyperlink ref="B10" r:id="rId2" xr:uid="{BCBFB3DE-8BC2-4C5D-A277-EC0C8EB3DE6C}"/>
-    <hyperlink ref="B11" r:id="rId3" xr:uid="{3B5B5D40-B949-4E38-8DCE-B84B75FE1A7F}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{B4565ADC-4DCC-4463-9B4D-A863FAA93D4A}"/>
+    <hyperlink ref="B22" r:id="rId1" xr:uid="{53C95C67-65D2-4BC6-82B4-AC756211F74B}"/>
+    <hyperlink ref="B16" r:id="rId2" xr:uid="{BCBFB3DE-8BC2-4C5D-A277-EC0C8EB3DE6C}"/>
+    <hyperlink ref="B17" r:id="rId3" xr:uid="{3B5B5D40-B949-4E38-8DCE-B84B75FE1A7F}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{B4565ADC-4DCC-4463-9B4D-A863FAA93D4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FAE497-2A20-465B-A979-722A0FFF1414}">
+  <dimension ref="A5:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{53DD399F-52DC-49B8-A1C1-DFA195624789}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397ECDEA-CCAA-4B2C-A79A-D0E5FB31AEDB}">
+  <dimension ref="B32:D39"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="23.54296875" style="1"/>
+    <col min="3" max="3" width="42.90625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="23.54296875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="32" spans="2:4" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="2:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="97" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="81.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="212.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D762D804-81FE-4E39-8550-245257113C76}">
+  <dimension ref="A27:L206"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G184" sqref="G184"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B143" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C144" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B145" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C146" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B148" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C149" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C150" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C151" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C152" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C153" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="154" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C154" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="155" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C155" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C156" s="2"/>
+    </row>
+    <row r="157" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B157" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C158" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C159" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A165" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B165" s="9"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="9"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A166" s="9"/>
+      <c r="B166" s="9"/>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A167" s="9"/>
+      <c r="B167" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="9"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A168" s="9"/>
+      <c r="B168" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="9"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A169" s="9"/>
+      <c r="B169" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="9"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A170" s="9"/>
+      <c r="B170" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A171" s="9"/>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="9"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A175" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B177" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B178" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B179" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B180" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B181" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B182" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B183" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B185" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B186" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B187" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B188" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B190" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B191" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B192" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B193" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B194" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B195" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B196" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B197" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B198" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B200" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B201" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B202" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B203" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C144" r:id="rId1" xr:uid="{003152FF-9257-4C4D-A027-53CE8299F4F0}"/>
+    <hyperlink ref="C146" r:id="rId2" xr:uid="{DE8EC411-DFA2-4623-A42C-BB3865C0D46C}"/>
+    <hyperlink ref="C158" r:id="rId3" xr:uid="{59F934A3-CE04-45AC-925F-8F08F8067D0A}"/>
+    <hyperlink ref="C149" r:id="rId4" xr:uid="{14D19A55-0895-479C-819D-60516EA1C158}"/>
+    <hyperlink ref="C150" r:id="rId5" xr:uid="{E40909BA-2169-4343-BA56-7C7B428218BC}"/>
+    <hyperlink ref="C159" r:id="rId6" xr:uid="{0CE437AF-4724-4BC4-A3AB-2539C6E20684}"/>
+    <hyperlink ref="C151" r:id="rId7" xr:uid="{7537D775-5329-41E2-988F-52F531C5BE37}"/>
+    <hyperlink ref="C152" r:id="rId8" xr:uid="{5234B4E7-1AFC-443E-9D75-D86373C5DFDE}"/>
+    <hyperlink ref="C153" r:id="rId9" xr:uid="{F38163A4-D70A-4F99-BA72-AC3293227B97}"/>
+    <hyperlink ref="C154" r:id="rId10" xr:uid="{4DF24281-67EA-4AD5-9005-4956A2E37E34}"/>
+    <hyperlink ref="C155" r:id="rId11" xr:uid="{389B0D9F-1DF1-406D-9726-E5CD148FDDE4}"/>
+    <hyperlink ref="A176" r:id="rId12" xr:uid="{5F8A7390-D824-4AB7-A808-AA457E7D4319}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <drawing r:id="rId14"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709ACE08-CFFB-46BD-8962-3AC85D967811}">
+  <dimension ref="A2:M33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C31"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M33"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{E462D67F-77B1-4A99-85C6-8EFBEA736B66}"/>
+    <hyperlink ref="A27" r:id="rId2" xr:uid="{13EC6E4E-833A-47F6-A895-468C0614229E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/Android/architecture/AndroidAutomotive.xlsx
+++ b/Android/architecture/AndroidAutomotive.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222BC9D7-C5B2-4CEE-B73E-86C08B74D71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F43503-E157-49D4-A7B2-D681F8918505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{518253FD-E22F-4613-BD44-B1078C6CAFE7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arch" sheetId="1" r:id="rId1"/>
-    <sheet name="HAL" sheetId="2" r:id="rId2"/>
-    <sheet name="Instrument cluster" sheetId="3" r:id="rId3"/>
-    <sheet name="Map" sheetId="4" r:id="rId4"/>
-    <sheet name="Context" sheetId="5" r:id="rId5"/>
-    <sheet name="BuildSystem" sheetId="6" r:id="rId6"/>
-    <sheet name="Handler" sheetId="7" r:id="rId7"/>
+    <sheet name="Docs maps" sheetId="8" r:id="rId1"/>
+    <sheet name="Arch" sheetId="1" r:id="rId2"/>
+    <sheet name="HAL" sheetId="2" r:id="rId3"/>
+    <sheet name="Instrument cluster" sheetId="3" r:id="rId4"/>
+    <sheet name="Data Type" sheetId="4" r:id="rId5"/>
+    <sheet name="Context" sheetId="5" r:id="rId6"/>
+    <sheet name="BuildSystem" sheetId="6" r:id="rId7"/>
+    <sheet name="Handler" sheetId="7" r:id="rId8"/>
+    <sheet name="Car App" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="227">
   <si>
     <t xml:space="preserve"> CarAudioManager(Car car, IBinder service)</t>
   </si>
@@ -755,6 +757,304 @@
   <si>
     <t>https://icancodeit.wordpress.com/2019/08/04/java-concurrency-executorservice-va-scheduledexecutorservice-trong-java/</t>
   </si>
+  <si>
+    <t>Android Device</t>
+  </si>
+  <si>
+    <t>https://source.android.com/docs/devices/automotive</t>
+  </si>
+  <si>
+    <t>Android Automotive Library</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/reference/android/car/packages</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Android Automotive</t>
+  </si>
+  <si>
+    <t>Reference API</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/cars/design/automotive-os</t>
+  </si>
+  <si>
+    <t>Automotive OS</t>
+  </si>
+  <si>
+    <t>UI design</t>
+  </si>
+  <si>
+    <t>Android for Car</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/training/cars</t>
+  </si>
+  <si>
+    <t>https://source.android.com/docs/setup</t>
+  </si>
+  <si>
+    <t>Getting started</t>
+  </si>
+  <si>
+    <t>Setup development environment, buid system, build Android</t>
+  </si>
+  <si>
+    <t>https://source.android.com/docs/core</t>
+  </si>
+  <si>
+    <t>Android architecture, module</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/guide</t>
+  </si>
+  <si>
+    <t>Guides</t>
+  </si>
+  <si>
+    <t>Core topics</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/reference</t>
+  </si>
+  <si>
+    <t>Android reference API, library</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/reference/packages</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/docs/quality-guidelines/car-app-quality</t>
+  </si>
+  <si>
+    <t>Car app quality</t>
+  </si>
+  <si>
+    <t>Rule apply when create app for car</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://cs.android.com/android/platform/superproject</t>
+  </si>
+  <si>
+    <t>Android source code</t>
+  </si>
+  <si>
+    <t>All source code of Android (include Automotive)</t>
+  </si>
+  <si>
+    <t>Android Automotive source code</t>
+  </si>
+  <si>
+    <t>https://cs.android.com/android/platform/superproject/+/master:packages/services/Car/service/</t>
+  </si>
+  <si>
+    <t>https://cs.android.com/android/platform/superproject/+/master:packages/services/Car/car-lib/</t>
+  </si>
+  <si>
+    <t>Car service
+・com.android.car</t>
+  </si>
+  <si>
+    <t>Car framework API
+・android.car</t>
+  </si>
+  <si>
+    <t>https://cs.android.com/android/platform/superproject/+/master:packages/apps/Car/</t>
+  </si>
+  <si>
+    <t>Reference public API</t>
+  </si>
+  <si>
+    <t>Android NDK</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/ndk/guides</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/ndk/guides/ndk-build</t>
+  </si>
+  <si>
+    <t>JNI tips</t>
+  </si>
+  <si>
+    <t>NDK build config
+・Android.mk
+・Application.mk</t>
+  </si>
+  <si>
+    <t>Cmake</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/ndk/guides/cmake</t>
+  </si>
+  <si>
+    <t>Android Studio</t>
+  </si>
+  <si>
+    <t>JNI Example</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/ndk/samples/sample_hellojni</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/ndk/reference</t>
+  </si>
+  <si>
+    <t>API of NDK</t>
+  </si>
+  <si>
+    <t>Hello jni</t>
+  </si>
+  <si>
+    <t>Add C and C++ code</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/studio/projects/add-native-code</t>
+  </si>
+  <si>
+    <t>How to add C/C++ code to app</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/studio/intro</t>
+  </si>
+  <si>
+    <t>Use guides</t>
+  </si>
+  <si>
+    <t>Build system</t>
+  </si>
+  <si>
+    <t>Configure file Android.bp</t>
+  </si>
+  <si>
+    <t>Build Soong
+・Android.bp</t>
+  </si>
+  <si>
+    <t>How to use Android Studio</t>
+  </si>
+  <si>
+    <t>C++ runtime libraries</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/ndk/guides/cpp-support</t>
+  </si>
+  <si>
+    <t>C++ runtime libraries
+・libc++, system, none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to create/test apps for Android Automotive OS
+・Media, navigation, ... </t>
+  </si>
+  <si>
+    <t>https://developer.android.com/training/cars/testing#oem-images</t>
+  </si>
+  <si>
+    <t>OEM's emulator
+・Polestar 2, Vovol</t>
+  </si>
+  <si>
+    <t>Android X</t>
+  </si>
+  <si>
+    <t>Car App Library</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/training/cars/apps</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/reference/androidx/car/app/package-summary</t>
+  </si>
+  <si>
+    <t>Using the Android for Cars App Library</t>
+  </si>
+  <si>
+    <t>Automotive OS Emulator</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>https://github.com/android/car-samples/tree/main/car_app_library</t>
+  </si>
+  <si>
+    <t>Car apps
+・cluster
+・SystemUI, …</t>
+  </si>
+  <si>
+    <t>AOSP Automotive App Host</t>
+  </si>
+  <si>
+    <t>https://source.android.com/docs/devices/automotive/hmi/aosp_host</t>
+  </si>
+  <si>
+    <t>Component, features, develop tool
+★Reference to Android X</t>
+  </si>
+  <si>
+    <t>Hardware interface</t>
+  </si>
+  <si>
+    <t>HIDL, HAL</t>
+  </si>
+  <si>
+    <t>https://source.android.com/reference</t>
+  </si>
+  <si>
+    <t>Jetpack</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/jetpack/androidx/releases/car-app</t>
+  </si>
+  <si>
+    <t>Build navigation and point of interest apps for Android Auto and Android Automotive OS</t>
+  </si>
+  <si>
+    <t>Car App</t>
+  </si>
+  <si>
+    <t>App basic, app architecture
+・manifest
+・resource
+・…</t>
+  </si>
+  <si>
+    <t>Android Open Source Project (AOSP) Automotive App Host
+★Google Automotive App Host lets you run apps built with the Android for Cars App Library for activities such as navigation, parking, and charging</t>
+  </si>
+  <si>
+    <t>Distribute Android apps for cars</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/training/cars/distribute</t>
+  </si>
+  <si>
+    <t>・Android Auto requirements
+・Android Automotive OS requirements</t>
+  </si>
+  <si>
+    <t>Config Gradle</t>
+  </si>
 </sst>
 </file>
 
@@ -838,7 +1138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -869,8 +1169,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -893,12 +1199,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -928,6 +1286,48 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11637,6 +12037,1116 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A25AF56-AFFA-FF20-E5F1-DA4158382693}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2197100" y="1092200"/>
+          <a:ext cx="2152650" cy="1949450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MyNavigationApp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>MyCarAppService extends </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CarAppService</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>&lt;uses-permission android:name="androidx.car.app.NAVIGATION_TEMPLATES"/&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644CA361-DBB2-408B-885D-9D5A3153AF13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190750" y="3511550"/>
+          <a:ext cx="2152650" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CarAppService</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>androidx.car.app</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>★</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>prebuild library, declare in build.gradle (download from google</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> maven server)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FA6DAB-AE86-4E23-91E4-CC777C3F2210}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2184400" y="5562600"/>
+          <a:ext cx="2152650" cy="1098550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Automotive Host App (system app)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>com.android.car.templates.host</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>★</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>prebuild APK installer file</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Connector: Elbow 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F048CBEB-467A-B72A-CA91-CE78F48C793F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3035300" y="3273425"/>
+          <a:ext cx="469900" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Connector: Elbow 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D1375EF-5425-453D-8DE5-6169890B007A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2924175" y="5219700"/>
+          <a:ext cx="679450" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADDCE9A3-B385-49A2-8743-802BCB3751F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2197100" y="8528050"/>
+          <a:ext cx="2152650" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CarService</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>AOSP)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>com.android.car</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212725</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Connector: Elbow 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B5E22C1-E0BE-4A97-BFCF-48C9EA99E465}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="36" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2949575" y="6972300"/>
+          <a:ext cx="641350" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Callout: Line 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C336F9-9C48-7EA0-AE1E-B455D4F63AB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5708650" y="5365750"/>
+          <a:ext cx="3276600" cy="1504950"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54464"/>
+            <a:gd name="adj2" fmla="val -1550"/>
+            <a:gd name="adj3" fmla="val 73981"/>
+            <a:gd name="adj4" fmla="val -38333"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>★</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Manual build APK</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>https://source.android.com/docs/devices/automotive/hmi/aosp_host</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>★</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Or</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> install from Google Play</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>https://play.google.com/store/apps/details?id=com.google.android.apps.automotive.templates.host</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Callout: Line 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2711FD79-56C5-4E2B-8243-1E7BAD0B5A63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5575300" y="2514600"/>
+          <a:ext cx="3276600" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54464"/>
+            <a:gd name="adj2" fmla="val -1550"/>
+            <a:gd name="adj3" fmla="val 100452"/>
+            <a:gd name="adj4" fmla="val -33488"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>★</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Config build.gradle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>https://developer.android.com/jetpack/androidx/releases/car-app#declaring_dependencies</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC710186-9D2C-4FBF-9526-178DC0E3C06D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2203450" y="7302500"/>
+          <a:ext cx="2152650" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>Car API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>AOSP)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>android.car</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Connector: Elbow 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27DEBF88-8C98-4A0B-B9B7-F4B5492D3343}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3092450" y="8340725"/>
+          <a:ext cx="368300" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rectangle 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130886B7-8118-694D-1FE7-36B31B348087}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1568450" y="704850"/>
+          <a:ext cx="3257550" cy="4489450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Android Studio</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rectangle 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E640662-5F9D-407A-B0FA-5082BA21F2AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1555750" y="5327650"/>
+          <a:ext cx="3257550" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>APK installer file</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rectangle 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{629BB7F3-CB90-48FB-AB93-162BC0F02F60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1536700" y="6965950"/>
+          <a:ext cx="3314700" cy="2749550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Android image</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11933,11 +13443,814 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33998ED7-A4B5-4E94-BA1E-4E12347E75F1}">
+  <dimension ref="A1:E54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="19"/>
+    <col min="2" max="2" width="23.1796875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="29.08984375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="35.26953125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="97.08984375" style="19" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="25" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="17">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="17">
+        <f t="shared" ref="A4:A11" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="17">
+        <v>1</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="17">
+        <f t="shared" ref="A13:A43" si="1">A12+1</f>
+        <v>2</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="17"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="17">
+        <f>A15+1</f>
+        <v>5</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="17">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="17">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="17">
+        <v>1</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A26" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="17">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="17">
+        <v>1</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="17">
+        <f t="shared" ref="A33:A34" si="2">A32+1</f>
+        <v>3</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="17">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="17">
+        <v>1</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="17">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="21"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="21"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B43" s="28"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="21"/>
+    </row>
+    <row r="44" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="17">
+        <v>1</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="17">
+        <f>A44+1</f>
+        <v>2</v>
+      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="17">
+        <f t="shared" ref="A46:A49" si="3">A45+1</f>
+        <v>3</v>
+      </c>
+      <c r="B46" s="27"/>
+      <c r="C46" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="17">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B47" s="27"/>
+      <c r="C47" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B48" s="27"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="21"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="17">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B49" s="28"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="21"/>
+    </row>
+    <row r="50" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="17">
+        <v>1</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="17">
+        <f t="shared" ref="A51:A54" si="4">A50+1</f>
+        <v>2</v>
+      </c>
+      <c r="B51" s="27"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B52" s="27"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="21"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="17">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B53" s="27"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="21"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="17">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B54" s="28"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B12:B22"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B35:B43"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E12" r:id="rId1" xr:uid="{D7C0BFF3-B3F3-48A9-BB84-3A69B6F96914}"/>
+    <hyperlink ref="E13" r:id="rId2" xr:uid="{B7F041E5-449F-4DB3-B71E-913BC9B6D4B2}"/>
+    <hyperlink ref="E14" r:id="rId3" xr:uid="{85D91672-96C6-4383-A857-800E07694F07}"/>
+    <hyperlink ref="E15" r:id="rId4" xr:uid="{38D7D4A0-3453-461C-B4A7-DDA934314C08}"/>
+    <hyperlink ref="E2" r:id="rId5" xr:uid="{F563340D-D5DD-401C-9DC3-D1E2E83214F7}"/>
+    <hyperlink ref="E3" r:id="rId6" xr:uid="{A3129325-1658-48AD-9FC9-D935F31B3636}"/>
+    <hyperlink ref="E4" r:id="rId7" xr:uid="{71E67A3A-D6D5-42C1-B5A3-0E612A68AC68}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{572981C4-1DE1-4254-89EE-A4F11FCCA7EB}"/>
+    <hyperlink ref="E7" r:id="rId9" xr:uid="{A1872F69-A458-48B9-8651-160D34227195}"/>
+    <hyperlink ref="E17" r:id="rId10" xr:uid="{C6AF595F-EE21-4B4A-9EE0-B17D1EFFD1B9}"/>
+    <hyperlink ref="E8" r:id="rId11" xr:uid="{95146CE2-5831-4F16-AB8A-8CB690546503}"/>
+    <hyperlink ref="E18" r:id="rId12" xr:uid="{D6BD6352-07BD-4CAA-A081-C5DA9D94FA7E}"/>
+    <hyperlink ref="E19" r:id="rId13" xr:uid="{0C7FDF1D-7EAA-4F76-8BFC-0FC3D93D91E1}"/>
+    <hyperlink ref="E20" r:id="rId14" xr:uid="{2607E679-32C0-4F86-A0F5-821520FEE7C7}"/>
+    <hyperlink ref="E35" r:id="rId15" xr:uid="{97E8A489-3F64-4710-86D2-31E9946FBBA5}"/>
+    <hyperlink ref="E36" r:id="rId16" xr:uid="{C63AD838-969C-4F56-BA2E-EDF6284604AD}"/>
+    <hyperlink ref="E37" r:id="rId17" xr:uid="{BE6B27C8-B7AA-4CE7-B9DE-1CAC8ABC877D}"/>
+    <hyperlink ref="E40" r:id="rId18" xr:uid="{189C156F-48BA-4021-9A21-7C0F21CB4A78}"/>
+    <hyperlink ref="E38" r:id="rId19" xr:uid="{059363A0-1E7D-4D93-B963-5C6AE1F107F4}"/>
+    <hyperlink ref="E46" r:id="rId20" xr:uid="{978CE82A-D3AF-4484-A81B-2D24EB63EBC5}"/>
+    <hyperlink ref="E44" r:id="rId21" xr:uid="{92584E56-63B3-4ED7-B371-09E6CF917D4F}"/>
+    <hyperlink ref="E50" r:id="rId22" xr:uid="{094AB453-E8DF-4266-8A74-CD9F66EB9D46}"/>
+    <hyperlink ref="E51" r:id="rId23" xr:uid="{C7A17DDB-769A-4869-929C-5222B65B1C45}"/>
+    <hyperlink ref="E39" r:id="rId24" xr:uid="{04D67400-B151-458E-8EFC-D095B18D62D8}"/>
+    <hyperlink ref="E47" r:id="rId25" location="oem-images" xr:uid="{B0A7E8BF-7F55-4A26-AA64-D710FDA12219}"/>
+    <hyperlink ref="E23" r:id="rId26" xr:uid="{C34965AB-02BC-4C97-A40D-D0A154C3715E}"/>
+    <hyperlink ref="E24" r:id="rId27" xr:uid="{FD8B70F9-7F79-47E3-A6F0-0CA6D102D370}"/>
+    <hyperlink ref="E25" r:id="rId28" xr:uid="{1432DDA2-93AA-43BD-9267-DFE043960B07}"/>
+    <hyperlink ref="E26" r:id="rId29" xr:uid="{3CBE2C4E-1DC5-467B-839B-FB32A815B6F3}"/>
+    <hyperlink ref="E5" r:id="rId30" xr:uid="{D7E7815B-3128-49DA-A16A-7D66654D15D5}"/>
+    <hyperlink ref="E27" r:id="rId31" xr:uid="{DB3617AD-AF4D-407B-9529-877AD6533DFA}"/>
+    <hyperlink ref="E16" r:id="rId32" xr:uid="{4AF6E485-5BD8-446D-8156-D09526969881}"/>
+    <hyperlink ref="E45" r:id="rId33" xr:uid="{D9B4F173-E011-4881-AF76-B34164C80DED}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50281EC2-2146-458C-A9B1-32588ED0AD3E}">
   <dimension ref="A40:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12029,7 +14342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A762D8-D5E0-417B-8E3B-22F80E7BD3DF}">
   <dimension ref="A2:B25"/>
   <sheetViews>
@@ -12185,7 +14498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830DC85E-A723-4C88-AF7E-DD59437A8500}">
   <dimension ref="A7:B259"/>
   <sheetViews>
@@ -12522,12 +14835,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FAE497-2A20-465B-A979-722A0FFF1414}">
   <dimension ref="A5:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12589,7 +14902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397ECDEA-CCAA-4B2C-A79A-D0E5FB31AEDB}">
   <dimension ref="B32:D39"/>
   <sheetViews>
@@ -12664,7 +14977,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" s="7" t="s">
         <v>75</v>
       </c>
@@ -12692,12 +15005,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D762D804-81FE-4E39-8550-245257113C76}">
   <dimension ref="A27:L206"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G184" sqref="G184"/>
+    <sheetView topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13033,7 +15346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709ACE08-CFFB-46BD-8962-3AC85D967811}">
   <dimension ref="A2:M33"/>
   <sheetViews>
@@ -13080,4 +15393,22 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767E5E60-3092-461D-BA45-0AC7B0E34119}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Android/architecture/AndroidAutomotive.xlsx
+++ b/Android/architecture/AndroidAutomotive.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F43503-E157-49D4-A7B2-D681F8918505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50BCD23-72D7-4201-9696-3A76A48FFD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{518253FD-E22F-4613-BD44-B1078C6CAFE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Docs maps" sheetId="8" r:id="rId1"/>
-    <sheet name="Arch" sheetId="1" r:id="rId2"/>
-    <sheet name="HAL" sheetId="2" r:id="rId3"/>
-    <sheet name="Instrument cluster" sheetId="3" r:id="rId4"/>
-    <sheet name="Data Type" sheetId="4" r:id="rId5"/>
-    <sheet name="Context" sheetId="5" r:id="rId6"/>
-    <sheet name="BuildSystem" sheetId="6" r:id="rId7"/>
-    <sheet name="Handler" sheetId="7" r:id="rId8"/>
-    <sheet name="Car App" sheetId="9" r:id="rId9"/>
+    <sheet name="Car App" sheetId="9" r:id="rId2"/>
+    <sheet name="Arch" sheetId="1" r:id="rId3"/>
+    <sheet name="HAL" sheetId="2" r:id="rId4"/>
+    <sheet name="Instrument cluster" sheetId="3" r:id="rId5"/>
+    <sheet name="Data Type" sheetId="4" r:id="rId6"/>
+    <sheet name="Context" sheetId="5" r:id="rId7"/>
+    <sheet name="BuildSystem" sheetId="6" r:id="rId8"/>
+    <sheet name="Handler" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="231">
   <si>
     <t xml:space="preserve"> CarAudioManager(Car car, IBinder service)</t>
   </si>
@@ -1055,12 +1055,24 @@
   <si>
     <t>Config Gradle</t>
   </si>
+  <si>
+    <t>Use AndroidX library</t>
+  </si>
+  <si>
+    <t>Use android.car.jar</t>
+  </si>
+  <si>
+    <t>Add android.car.jar from SDK folder to project</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/reference/android/car/classes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1133,6 +1145,13 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1256,7 +1275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -1295,9 +1314,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1316,9 +1332,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1326,6 +1339,27 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1347,6 +1381,1248 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A25AF56-AFFA-FF20-E5F1-DA4158382693}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2197100" y="1092200"/>
+          <a:ext cx="2152650" cy="1949450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MyNavigationApp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>MyCarAppService extends </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CarAppService</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>&lt;uses-permission android:name="androidx.car.app.NAVIGATION_TEMPLATES"/&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644CA361-DBB2-408B-885D-9D5A3153AF13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190750" y="3511550"/>
+          <a:ext cx="2152650" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CarAppService</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>androidx.car.app</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>★</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>prebuild library, declare in build.gradle (download from google</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> maven server)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FA6DAB-AE86-4E23-91E4-CC777C3F2210}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2184400" y="5562600"/>
+          <a:ext cx="2152650" cy="1098550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Automotive Host App (system app)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>com.android.car.templates.host</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>★</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>prebuild APK installer file</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Connector: Elbow 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F048CBEB-467A-B72A-CA91-CE78F48C793F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3035300" y="3273425"/>
+          <a:ext cx="469900" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Connector: Elbow 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D1375EF-5425-453D-8DE5-6169890B007A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2924175" y="5219700"/>
+          <a:ext cx="679450" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADDCE9A3-B385-49A2-8743-802BCB3751F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2197100" y="8528050"/>
+          <a:ext cx="2152650" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CarService</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>AOSP)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>com.android.car</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212725</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Connector: Elbow 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B5E22C1-E0BE-4A97-BFCF-48C9EA99E465}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="36" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2949575" y="6972300"/>
+          <a:ext cx="641350" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Callout: Line 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C336F9-9C48-7EA0-AE1E-B455D4F63AB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5708650" y="5365750"/>
+          <a:ext cx="3276600" cy="1504950"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54464"/>
+            <a:gd name="adj2" fmla="val -1550"/>
+            <a:gd name="adj3" fmla="val 73981"/>
+            <a:gd name="adj4" fmla="val -38333"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>★</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Manual build APK</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>https://source.android.com/docs/devices/automotive/hmi/aosp_host</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>★</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Or</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> install from Google Play</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>https://play.google.com/store/apps/details?id=com.google.android.apps.automotive.templates.host</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Callout: Line 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2711FD79-56C5-4E2B-8243-1E7BAD0B5A63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5575300" y="2514600"/>
+          <a:ext cx="3276600" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54464"/>
+            <a:gd name="adj2" fmla="val -1550"/>
+            <a:gd name="adj3" fmla="val 100452"/>
+            <a:gd name="adj4" fmla="val -33488"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>★</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Config build.gradle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>https://developer.android.com/jetpack/androidx/releases/car-app#declaring_dependencies</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC710186-9D2C-4FBF-9526-178DC0E3C06D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2203450" y="7302500"/>
+          <a:ext cx="2152650" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>Car API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>AOSP)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>android.car</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Connector: Elbow 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27DEBF88-8C98-4A0B-B9B7-F4B5492D3343}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3092450" y="8340725"/>
+          <a:ext cx="368300" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rectangle 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130886B7-8118-694D-1FE7-36B31B348087}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1568450" y="704850"/>
+          <a:ext cx="3257550" cy="4489450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Android Studio</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rectangle 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E640662-5F9D-407A-B0FA-5082BA21F2AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1555750" y="5327650"/>
+          <a:ext cx="3257550" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>APK installer file</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rectangle 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{629BB7F3-CB90-48FB-AB93-162BC0F02F60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1536700" y="6965950"/>
+          <a:ext cx="3314700" cy="2749550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Android image</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>25423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>153873</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>152905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58D29724-76A0-5872-69BF-38308886DF6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="654050" y="11442723"/>
+          <a:ext cx="6815023" cy="2337282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>132460</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>197496</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>16889</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E654D15F-ED21-9A6A-EEDB-B40893227C01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742060" y="13912850"/>
+          <a:ext cx="3113036" cy="4887339"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>1057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>510233</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>32844</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25BF9DD6-A038-58AA-7CA0-3320ABE9CDD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="768350" y="19152657"/>
+          <a:ext cx="6447483" cy="3162337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2655,7 +3931,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3938,7 +5214,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9807,7 +11083,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10082,7 +11358,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -11346,7 +12622,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -12034,1116 +13310,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A25AF56-AFFA-FF20-E5F1-DA4158382693}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2197100" y="1092200"/>
-          <a:ext cx="2152650" cy="1949450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>MyNavigationApp</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>MyCarAppService extends </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>CarAppService</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>&lt;uses-permission android:name="androidx.car.app.NAVIGATION_TEMPLATES"/&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644CA361-DBB2-408B-885D-9D5A3153AF13}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2190750" y="3511550"/>
-          <a:ext cx="2152650" cy="1371600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>CarAppService</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>androidx.car.app</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>★</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>prebuild library, declare in build.gradle (download from google</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> maven server)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FA6DAB-AE86-4E23-91E4-CC777C3F2210}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2184400" y="5562600"/>
-          <a:ext cx="2152650" cy="1098550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Automotive Host App (system app)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>com.android.car.templates.host</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>★</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>prebuild APK installer file</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>225425</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Connector: Elbow 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F048CBEB-467A-B72A-CA91-CE78F48C793F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="3" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="3035300" y="3273425"/>
-          <a:ext cx="469900" cy="6350"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>212725</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Connector: Elbow 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D1375EF-5425-453D-8DE5-6169890B007A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="4" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2924175" y="5219700"/>
-          <a:ext cx="679450" cy="6350"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADDCE9A3-B385-49A2-8743-802BCB3751F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2197100" y="8528050"/>
-          <a:ext cx="2152650" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>CarService</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>AOSP)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>com.android.car</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>212725</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>231775</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Connector: Elbow 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B5E22C1-E0BE-4A97-BFCF-48C9EA99E465}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="36" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2949575" y="6972300"/>
-          <a:ext cx="641350" cy="19050"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Callout: Line 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C336F9-9C48-7EA0-AE1E-B455D4F63AB1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5708650" y="5365750"/>
-          <a:ext cx="3276600" cy="1504950"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 54464"/>
-            <a:gd name="adj2" fmla="val -1550"/>
-            <a:gd name="adj3" fmla="val 73981"/>
-            <a:gd name="adj4" fmla="val -38333"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>★</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Manual build APK</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>https://source.android.com/docs/devices/automotive/hmi/aosp_host</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>★</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Or</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> install from Google Play</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>https://play.google.com/store/apps/details?id=com.google.android.apps.automotive.templates.host</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Callout: Line 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2711FD79-56C5-4E2B-8243-1E7BAD0B5A63}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5575300" y="2514600"/>
-          <a:ext cx="3276600" cy="711200"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 54464"/>
-            <a:gd name="adj2" fmla="val -1550"/>
-            <a:gd name="adj3" fmla="val 100452"/>
-            <a:gd name="adj4" fmla="val -33488"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>★</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Config build.gradle</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>https://developer.android.com/jetpack/androidx/releases/car-app#declaring_dependencies</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Rectangle 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC710186-9D2C-4FBF-9526-178DC0E3C06D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2203450" y="7302500"/>
-          <a:ext cx="2152650" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>Car API</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>AOSP)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>android.car</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>225425</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>231775</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Connector: Elbow 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27DEBF88-8C98-4A0B-B9B7-F4B5492D3343}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="36" idx="2"/>
-          <a:endCxn id="10" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="3092450" y="8340725"/>
-          <a:ext cx="368300" cy="6350"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Rectangle 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130886B7-8118-694D-1FE7-36B31B348087}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1568450" y="704850"/>
-          <a:ext cx="3257550" cy="4489450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Android Studio</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Rectangle 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E640662-5F9D-407A-B0FA-5082BA21F2AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1555750" y="5327650"/>
-          <a:ext cx="3257550" cy="1485900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>APK installer file</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Rectangle 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{629BB7F3-CB90-48FB-AB93-162BC0F02F60}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1536700" y="6965950"/>
-          <a:ext cx="3314700" cy="2749550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Android image</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13446,34 +13612,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33998ED7-A4B5-4E94-BA1E-4E12347E75F1}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="19"/>
-    <col min="2" max="2" width="23.1796875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="29.08984375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="35.26953125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="29.08984375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="35.26953125" style="21" customWidth="1"/>
     <col min="5" max="5" width="97.08984375" style="19" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="25" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" s="24" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>163</v>
       </c>
     </row>
@@ -13481,7 +13647,7 @@
       <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="30" t="s">
         <v>137</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -13490,7 +13656,7 @@
       <c r="D2" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>145</v>
       </c>
     </row>
@@ -13499,14 +13665,14 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="18" t="s">
         <v>152</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>148</v>
       </c>
     </row>
@@ -13515,14 +13681,14 @@
         <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="18" t="s">
         <v>151</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>150</v>
       </c>
     </row>
@@ -13531,14 +13697,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="18" t="s">
         <v>214</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>216</v>
       </c>
     </row>
@@ -13547,14 +13713,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>153</v>
       </c>
     </row>
@@ -13563,10 +13729,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="20" t="s">
         <v>155</v>
       </c>
     </row>
@@ -13575,14 +13741,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="18" t="s">
         <v>165</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>164</v>
       </c>
     </row>
@@ -13591,36 +13757,36 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="21"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="21"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="21"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="17">
         <v>1</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="30" t="s">
         <v>138</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -13629,39 +13795,39 @@
       <c r="D12" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17">
         <f t="shared" ref="A13:A43" si="1">A12+1</f>
         <v>2</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="32" t="s">
         <v>135</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="18" t="s">
         <v>141</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="20" t="s">
         <v>140</v>
       </c>
     </row>
@@ -13670,43 +13836,43 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="18" t="s">
         <v>143</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
-      <c r="B16" s="20"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="18" t="s">
         <v>223</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="20" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17">
         <f>A15+1</f>
         <v>5</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="18" t="s">
         <v>157</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>156</v>
       </c>
     </row>
@@ -13715,14 +13881,14 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="26" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="33" t="s">
         <v>167</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="20" t="s">
         <v>168</v>
       </c>
     </row>
@@ -13731,12 +13897,12 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="27"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="20" t="s">
         <v>169</v>
       </c>
     </row>
@@ -13745,12 +13911,12 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="28"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="20" t="s">
         <v>172</v>
       </c>
     </row>
@@ -13759,7 +13925,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="17"/>
@@ -13769,7 +13935,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="17"/>
@@ -13778,16 +13944,16 @@
       <c r="A23" s="17">
         <v>1</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="20" t="s">
         <v>204</v>
       </c>
     </row>
@@ -13796,12 +13962,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="18" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="20" t="s">
         <v>205</v>
       </c>
     </row>
@@ -13810,12 +13976,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B25" s="27"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="28"/>
       <c r="D25" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>209</v>
       </c>
     </row>
@@ -13824,14 +13990,14 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="30" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="26" t="s">
         <v>211</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="20" t="s">
         <v>212</v>
       </c>
     </row>
@@ -13840,14 +14006,14 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="29" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="20" t="s">
         <v>218</v>
       </c>
     </row>
@@ -13856,20 +14022,20 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="21"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="17">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="21"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="20"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="17">
@@ -13879,38 +14045,38 @@
       <c r="B30" s="28"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="21"/>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17">
         <v>1</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="21"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="17">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B32" s="27"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="21"/>
+      <c r="E32" s="20"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="17">
         <f t="shared" ref="A33:A34" si="2">A32+1</f>
         <v>3</v>
       </c>
-      <c r="B33" s="27"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="21"/>
+      <c r="E33" s="20"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="17">
@@ -13920,13 +14086,13 @@
       <c r="B34" s="28"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
-      <c r="E34" s="21"/>
+      <c r="E34" s="20"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="17">
         <v>1</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="27" t="s">
         <v>174</v>
       </c>
       <c r="C35" s="18" t="s">
@@ -13935,7 +14101,7 @@
       <c r="D35" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="20" t="s">
         <v>175</v>
       </c>
     </row>
@@ -13944,12 +14110,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B36" s="27"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="20" t="s">
         <v>176</v>
       </c>
     </row>
@@ -13958,14 +14124,14 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B37" s="27"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="18" t="s">
         <v>179</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="20" t="s">
         <v>180</v>
       </c>
     </row>
@@ -13974,14 +14140,14 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="18" t="s">
+      <c r="B38" s="29"/>
+      <c r="C38" s="32" t="s">
         <v>139</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="20" t="s">
         <v>184</v>
       </c>
     </row>
@@ -13990,14 +14156,14 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B39" s="27"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="18" t="s">
         <v>196</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="20" t="s">
         <v>197</v>
       </c>
     </row>
@@ -14006,14 +14172,14 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B40" s="27"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="18" t="s">
         <v>182</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="20" t="s">
         <v>183</v>
       </c>
     </row>
@@ -14022,20 +14188,20 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B41" s="27"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
-      <c r="E41" s="21"/>
+      <c r="E41" s="20"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="17">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B42" s="27"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="21"/>
+      <c r="E42" s="20"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="17">
@@ -14045,22 +14211,22 @@
       <c r="B43" s="28"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
-      <c r="E43" s="21"/>
+      <c r="E43" s="20"/>
     </row>
     <row r="44" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17">
         <v>1</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="27" t="s">
         <v>191</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="20" t="s">
         <v>190</v>
       </c>
     </row>
@@ -14069,12 +14235,12 @@
         <f>A44+1</f>
         <v>2</v>
       </c>
-      <c r="B45" s="27"/>
+      <c r="B45" s="29"/>
       <c r="C45" s="28"/>
       <c r="D45" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="20" t="s">
         <v>82</v>
       </c>
     </row>
@@ -14083,14 +14249,14 @@
         <f t="shared" ref="A46:A49" si="3">A45+1</f>
         <v>3</v>
       </c>
-      <c r="B46" s="27"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="18" t="s">
         <v>187</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E46" s="20" t="s">
         <v>188</v>
       </c>
     </row>
@@ -14099,14 +14265,14 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B47" s="27"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="18" t="s">
         <v>207</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="20" t="s">
         <v>200</v>
       </c>
     </row>
@@ -14115,10 +14281,10 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B48" s="27"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
-      <c r="E48" s="21"/>
+      <c r="E48" s="20"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="17">
@@ -14128,22 +14294,22 @@
       <c r="B49" s="28"/>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
-      <c r="E49" s="21"/>
+      <c r="E49" s="20"/>
     </row>
     <row r="50" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17">
         <v>1</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="E50" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -14152,10 +14318,10 @@
         <f t="shared" ref="A51:A54" si="4">A50+1</f>
         <v>2</v>
       </c>
-      <c r="B51" s="27"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="28"/>
       <c r="D51" s="28"/>
-      <c r="E51" s="21" t="s">
+      <c r="E51" s="20" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14164,20 +14330,20 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="B52" s="27"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
-      <c r="E52" s="21"/>
+      <c r="E52" s="20"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="17">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B53" s="27"/>
+      <c r="B53" s="29"/>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
-      <c r="E53" s="21"/>
+      <c r="E53" s="20"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="17">
@@ -14187,15 +14353,11 @@
       <c r="B54" s="28"/>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
-      <c r="E54" s="21"/>
+      <c r="E54" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B35:B43"/>
     <mergeCell ref="B23:B30"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="B31:B34"/>
@@ -14204,7 +14366,11 @@
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="B12:B22"/>
     <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B35:B43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C50:C51"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E12" r:id="rId1" xr:uid="{D7C0BFF3-B3F3-48A9-BB84-3A69B6F96914}"/>
@@ -14242,10 +14408,59 @@
     <hyperlink ref="E45" r:id="rId33" xr:uid="{D9B4F173-E011-4881-AF76-B34164C80DED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767E5E60-3092-461D-BA45-0AC7B0E34119}">
+  <dimension ref="A3:B60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="P72" sqref="P72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="9">
+        <v>2</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B60" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B60" r:id="rId1" xr:uid="{DAE174E3-F4A7-44CA-9719-B82775E62A2C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50281EC2-2146-458C-A9B1-32588ED0AD3E}">
   <dimension ref="A40:Q51"/>
   <sheetViews>
@@ -14342,7 +14557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A762D8-D5E0-417B-8E3B-22F80E7BD3DF}">
   <dimension ref="A2:B25"/>
   <sheetViews>
@@ -14498,11 +14713,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830DC85E-A723-4C88-AF7E-DD59437A8500}">
   <dimension ref="A7:B259"/>
   <sheetViews>
-    <sheetView topLeftCell="A274" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A298" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="O342" sqref="O342"/>
     </sheetView>
   </sheetViews>
@@ -14835,7 +15050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FAE497-2A20-465B-A979-722A0FFF1414}">
   <dimension ref="A5:A15"/>
   <sheetViews>
@@ -14902,7 +15117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397ECDEA-CCAA-4B2C-A79A-D0E5FB31AEDB}">
   <dimension ref="B32:D39"/>
   <sheetViews>
@@ -14917,14 +15132,14 @@
     <col min="4" max="16384" width="23.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="32" spans="2:4" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
     </row>
-    <row r="33" spans="2:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
         <v>62</v>
@@ -15005,7 +15220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D762D804-81FE-4E39-8550-245257113C76}">
   <dimension ref="A27:L206"/>
   <sheetViews>
@@ -15346,7 +15561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709ACE08-CFFB-46BD-8962-3AC85D967811}">
   <dimension ref="A2:M33"/>
   <sheetViews>
@@ -15393,22 +15608,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767E5E60-3092-461D-BA45-0AC7B0E34119}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Android/architecture/AndroidAutomotive.xlsx
+++ b/Android/architecture/AndroidAutomotive.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50BCD23-72D7-4201-9696-3A76A48FFD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73551BD-48AE-4B14-84FC-CAA82D6E2D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{518253FD-E22F-4613-BD44-B1078C6CAFE7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{518253FD-E22F-4613-BD44-B1078C6CAFE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Docs maps" sheetId="8" r:id="rId1"/>
-    <sheet name="Car App" sheetId="9" r:id="rId2"/>
-    <sheet name="Arch" sheetId="1" r:id="rId3"/>
-    <sheet name="HAL" sheetId="2" r:id="rId4"/>
-    <sheet name="Instrument cluster" sheetId="3" r:id="rId5"/>
-    <sheet name="Data Type" sheetId="4" r:id="rId6"/>
-    <sheet name="Context" sheetId="5" r:id="rId7"/>
-    <sheet name="BuildSystem" sheetId="6" r:id="rId8"/>
-    <sheet name="Handler" sheetId="7" r:id="rId9"/>
+    <sheet name="GUI design" sheetId="10" r:id="rId2"/>
+    <sheet name="Car App" sheetId="9" r:id="rId3"/>
+    <sheet name="Arch" sheetId="1" r:id="rId4"/>
+    <sheet name="HAL" sheetId="2" r:id="rId5"/>
+    <sheet name="Instrument cluster" sheetId="3" r:id="rId6"/>
+    <sheet name="Data Type" sheetId="4" r:id="rId7"/>
+    <sheet name="Context" sheetId="5" r:id="rId8"/>
+    <sheet name="BuildSystem" sheetId="6" r:id="rId9"/>
+    <sheet name="Handler" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="241">
   <si>
     <t xml:space="preserve"> CarAudioManager(Car car, IBinder service)</t>
   </si>
@@ -1067,12 +1068,42 @@
   <si>
     <t>https://developer.android.com/reference/android/car/classes</t>
   </si>
+  <si>
+    <t>★Note</t>
+  </si>
+  <si>
+    <t>Có 2 cách để điểu khiển Fragment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・FragmentManager </t>
+  </si>
+  <si>
+    <t>・NavHostFragment　　→strong recommend</t>
+  </si>
+  <si>
+    <t>Template design UI</t>
+  </si>
+  <si>
+    <t>・Có ít Activity</t>
+  </si>
+  <si>
+    <t>・Trong mỗi Activity có 1 NavHostFragment để quản lý nhiểu Fragment</t>
+  </si>
+  <si>
+    <t>・Trong Fragment có thể có vài child Fragment</t>
+  </si>
+  <si>
+    <t>・Không nên giao tiếp trực tiếp giữa các Fragment mà nên thông qua Activity</t>
+  </si>
+  <si>
+    <t>・Thiết kế Fragment độc lập để có thể re-use</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1150,6 +1181,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1275,7 +1314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -1335,22 +1374,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1360,6 +1398,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1381,6 +1422,2233 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C511604-7A91-0B6F-1A30-78B4175175E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5937250" y="800100"/>
+          <a:ext cx="1123950" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MyApp</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{200D1B85-3402-41CD-B2D2-08E35C7A8A69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3975100" y="2209800"/>
+          <a:ext cx="1123950" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Activity</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F13DA115-1D6A-4047-8DA8-DF627098E3BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7410450" y="2247900"/>
+          <a:ext cx="1123950" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Activity</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>553356</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>597806</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>36287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D158C6C-6242-418F-A1BB-893243D1805C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3616297" y="3481294"/>
+          <a:ext cx="1882215" cy="850581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" b="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>FragmentContainerView</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>NavHostFragment</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>★</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>this ia a Fragment</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="Group 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A94E66-155F-D3B4-338B-86C958D3EA6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2456703" y="5292912"/>
+          <a:ext cx="1920315" cy="1649132"/>
+          <a:chOff x="2444750" y="5219700"/>
+          <a:chExt cx="1911350" cy="1625600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4A2B798-AC64-40A6-8480-D5CC8322261E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2444750" y="5219700"/>
+            <a:ext cx="1911350" cy="1625600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Fragment 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3EBEA2C-30FF-4EDB-AB7C-B50CA48AAF53}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2546350" y="5530850"/>
+            <a:ext cx="1612900" cy="565150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Fragment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>・</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t>child 1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Rectangle 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0CF29F3-996E-4D0E-9523-5A5CF96782F0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2565400" y="6203950"/>
+            <a:ext cx="1612900" cy="565150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Fragment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>・</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t>child 2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="Group 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E280705F-2F3E-44F6-997E-8FA8546DF7D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6840071" y="5381812"/>
+          <a:ext cx="1920314" cy="1649132"/>
+          <a:chOff x="2444750" y="5219700"/>
+          <a:chExt cx="1911350" cy="1625600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Rectangle 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34170E81-7B83-001E-580F-895E9F1DB3B3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2444750" y="5219700"/>
+            <a:ext cx="1911350" cy="1625600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Fragment 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Rectangle 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC56B884-F980-3AEF-3621-870D70FD45EC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2546350" y="5530850"/>
+            <a:ext cx="1612900" cy="565150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Fragment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>・</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t>child 1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Rectangle 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EB96B81-0E7D-B9A1-41A9-3459E15CC0C5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2565400" y="6203950"/>
+            <a:ext cx="1612900" cy="565150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Fragment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>・</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t>child 2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Connector: Curved 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA93E4FE-4060-3298-D115-7AD2058900F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5022850" y="733425"/>
+          <a:ext cx="990600" cy="1962150"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Connector: Curved 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC6D533-31E9-422E-A818-F3506547DCE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6721475" y="996950"/>
+          <a:ext cx="1028700" cy="1473200"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>269287</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119529</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Connector: Curved 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8895BA3-8CBD-4633-82D3-BBDFC14EC587}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4149805" y="3073106"/>
+          <a:ext cx="815788" cy="588"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>353921</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>269288</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Connector: Curved 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65547469-9617-40BC-877D-22EADE8EB3BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3506615" y="4242121"/>
+          <a:ext cx="961037" cy="1140544"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>269287</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>449169</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Connector: Curved 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5594B961-C1CB-4447-B988-04567A77B317}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5653848" y="3235431"/>
+          <a:ext cx="1049937" cy="3242823"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="Group 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7F60FC-E7E8-4487-AD35-9E383A95E044}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="911038" y="7913968"/>
+          <a:ext cx="1920315" cy="1649132"/>
+          <a:chOff x="2444750" y="5219700"/>
+          <a:chExt cx="1911350" cy="1625600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="Rectangle 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E670FB5A-167A-9E7C-EF82-172013B66D8E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2444750" y="5219700"/>
+            <a:ext cx="1911350" cy="1625600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Fragment 1-1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="Rectangle 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B66FE17A-C2AF-DACF-B3F4-CC89E7C50DF2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2546350" y="5530850"/>
+            <a:ext cx="1612900" cy="565150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Fragment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>・</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t>child 1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="Rectangle 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03234686-E89F-CCAA-193D-D24A987CE9DA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2565400" y="6203950"/>
+            <a:ext cx="1612900" cy="565150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Fragment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>・</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t>child 2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="Group 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55282E59-4A70-4271-8243-EEEBE8F15EE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6163982" y="7945718"/>
+          <a:ext cx="1920315" cy="1649132"/>
+          <a:chOff x="2444750" y="5219700"/>
+          <a:chExt cx="1911350" cy="1625600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="Rectangle 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01BB15B9-FDAC-5552-78A1-16F352F8C4C8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2444750" y="5219700"/>
+            <a:ext cx="1911350" cy="1625600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Fragment 2-1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="Rectangle 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A66AD4-4E32-70AB-48DC-D26FAAD103EA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2546350" y="5530850"/>
+            <a:ext cx="1612900" cy="565150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Fragment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>・</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t>child 1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="Rectangle 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67136144-BA15-1827-A06E-F430DC7ADF10}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2565400" y="6203950"/>
+            <a:ext cx="1612900" cy="565150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Fragment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>・</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t>child 2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Connector: Curved 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3CEA80-E560-4898-9E96-5911F40BACAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="30" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2152650" y="6556375"/>
+          <a:ext cx="958850" cy="1536700"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="40" name="Group 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC2C7ED6-34A0-4E91-B642-3EE854E41D15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3405841" y="7933018"/>
+          <a:ext cx="1920315" cy="1649132"/>
+          <a:chOff x="2444750" y="5219700"/>
+          <a:chExt cx="1911350" cy="1625600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="Rectangle 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1CDA21F-40D6-6ACC-B699-65A603221536}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2444750" y="5219700"/>
+            <a:ext cx="1911350" cy="1625600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Fragment 1-1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="Rectangle 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F53B3C9-5077-00A2-C923-7FB8E6173FF7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2546350" y="5530850"/>
+            <a:ext cx="1612900" cy="565150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Fragment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>・</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t>child 1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="Rectangle 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA8D7CC9-8962-1CB0-D956-6E045D48E616}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2565400" y="6203950"/>
+            <a:ext cx="1612900" cy="565150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Fragment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>・</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t>child 2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Connector: Curved 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B1E19D7-27F3-4ED0-84F5-9BEA105B764F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="41" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3384550" y="6861175"/>
+          <a:ext cx="977900" cy="946150"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="47" name="Group 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C036C390-8A39-4D7C-90CF-08E65DD3619B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8811185" y="7920318"/>
+          <a:ext cx="1920315" cy="1649132"/>
+          <a:chOff x="2444750" y="5219700"/>
+          <a:chExt cx="1911350" cy="1625600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="Rectangle 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F166E853-7FEC-2D94-225B-BD3AEA5C9C1C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2444750" y="5219700"/>
+            <a:ext cx="1911350" cy="1625600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Fragment 2-2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="Rectangle 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BA3A002-E220-E2F4-A5CC-FCCF4C1C75B0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2546350" y="5530850"/>
+            <a:ext cx="1612900" cy="565150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Fragment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>・</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t>child 1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="Rectangle 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAFC0E69-5641-FDD7-5131-769B5955148A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2565400" y="6203950"/>
+            <a:ext cx="1612900" cy="565150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Fragment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>・</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t>child 2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>384175</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Connector: Curved 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66408A71-68AE-4CFC-9ED6-7EC885DF80E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="34" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6975475" y="7048500"/>
+          <a:ext cx="901700" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Connector: Curved 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CFF5AA6-E3A7-414F-B0D7-0F043F5774EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8305800" y="6391275"/>
+          <a:ext cx="876300" cy="1962150"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>344714</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>249464</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rectangle 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EEC3DF7-B2D2-4895-A733-E7F341868CD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1569890" y="3525051"/>
+          <a:ext cx="1129927" cy="830302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AppBarLayout</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ToolBar</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>297090</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>269876</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Connector: Curved 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA39CB58-A310-405E-96A6-24F573579272}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="57" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2916652" y="1883709"/>
+          <a:ext cx="859545" cy="2423139"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2622,7 +4890,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3931,7 +6199,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5214,7 +7482,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11083,7 +13351,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -11358,7 +13626,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -12622,7 +14890,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -13612,7 +15880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33998ED7-A4B5-4E94-BA1E-4E12347E75F1}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -13647,7 +15915,7 @@
       <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>137</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -13665,7 +15933,7 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="18" t="s">
         <v>152</v>
       </c>
@@ -13681,7 +15949,7 @@
         <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="18" t="s">
         <v>151</v>
       </c>
@@ -13697,7 +15965,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="18" t="s">
         <v>214</v>
       </c>
@@ -13713,11 +15981,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="33" t="s">
         <v>154</v>
       </c>
       <c r="E6" s="20" t="s">
@@ -13729,9 +15997,9 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="30"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="20" t="s">
         <v>155</v>
       </c>
@@ -13741,7 +16009,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="18" t="s">
         <v>165</v>
       </c>
@@ -13757,7 +16025,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="20"/>
@@ -13767,7 +16035,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="20"/>
@@ -13777,7 +16045,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="20"/>
@@ -13786,7 +16054,7 @@
       <c r="A12" s="17">
         <v>1</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="33" t="s">
         <v>138</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -13804,8 +16072,8 @@
         <f t="shared" ref="A13:A43" si="1">A12+1</f>
         <v>2</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="27" t="s">
         <v>135</v>
       </c>
       <c r="D13" s="18" t="s">
@@ -13820,7 +16088,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B14" s="30"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="18" t="s">
         <v>141</v>
       </c>
@@ -13836,7 +16104,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B15" s="30"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="18" t="s">
         <v>143</v>
       </c>
@@ -13849,7 +16117,7 @@
     </row>
     <row r="16" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
-      <c r="B16" s="30"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="18" t="s">
         <v>223</v>
       </c>
@@ -13865,7 +16133,7 @@
         <f>A15+1</f>
         <v>5</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="18" t="s">
         <v>157</v>
       </c>
@@ -13881,8 +16149,8 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="33" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="34" t="s">
         <v>167</v>
       </c>
       <c r="D18" s="18" t="s">
@@ -13897,8 +16165,8 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="18" t="s">
         <v>171</v>
       </c>
@@ -13911,8 +16179,8 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="18" t="s">
         <v>210</v>
       </c>
@@ -13925,7 +16193,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="17"/>
@@ -13935,7 +16203,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="17"/>
@@ -13944,10 +16212,10 @@
       <c r="A23" s="17">
         <v>1</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="30" t="s">
         <v>203</v>
       </c>
       <c r="D23" s="25" t="s">
@@ -13962,9 +16230,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="32" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="27" t="s">
         <v>139</v>
       </c>
       <c r="E24" s="20" t="s">
@@ -13976,8 +16244,8 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="28"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="18" t="s">
         <v>208</v>
       </c>
@@ -13990,7 +16258,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B26" s="29"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="26" t="s">
         <v>211</v>
       </c>
@@ -14006,7 +16274,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B27" s="29"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="25" t="s">
         <v>220</v>
       </c>
@@ -14022,7 +16290,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B28" s="29"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="20"/>
@@ -14032,7 +16300,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B29" s="29"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="20"/>
@@ -14042,7 +16310,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B30" s="28"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
       <c r="E30" s="20"/>
@@ -14051,7 +16319,7 @@
       <c r="A31" s="17">
         <v>1</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="30" t="s">
         <v>217</v>
       </c>
       <c r="C31" s="25"/>
@@ -14063,7 +16331,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B32" s="29"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
       <c r="E32" s="20"/>
@@ -14073,7 +16341,7 @@
         <f t="shared" ref="A33:A34" si="2">A32+1</f>
         <v>3</v>
       </c>
-      <c r="B33" s="29"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="20"/>
@@ -14083,7 +16351,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B34" s="28"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="E34" s="20"/>
@@ -14092,7 +16360,7 @@
       <c r="A35" s="17">
         <v>1</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="30" t="s">
         <v>174</v>
       </c>
       <c r="C35" s="18" t="s">
@@ -14110,7 +16378,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B36" s="29"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18" t="s">
         <v>178</v>
@@ -14124,7 +16392,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B37" s="29"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="18" t="s">
         <v>179</v>
       </c>
@@ -14140,8 +16408,8 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="32" t="s">
+      <c r="B38" s="31"/>
+      <c r="C38" s="27" t="s">
         <v>139</v>
       </c>
       <c r="D38" s="18" t="s">
@@ -14156,7 +16424,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B39" s="29"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="18" t="s">
         <v>196</v>
       </c>
@@ -14172,7 +16440,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B40" s="29"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="18" t="s">
         <v>182</v>
       </c>
@@ -14188,7 +16456,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B41" s="29"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="20"/>
@@ -14198,7 +16466,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B42" s="29"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="20"/>
@@ -14208,7 +16476,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B43" s="28"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
       <c r="E43" s="20"/>
@@ -14217,10 +16485,10 @@
       <c r="A44" s="17">
         <v>1</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="30" t="s">
         <v>191</v>
       </c>
       <c r="D44" s="18" t="s">
@@ -14235,8 +16503,8 @@
         <f>A44+1</f>
         <v>2</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="28"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="18" t="s">
         <v>226</v>
       </c>
@@ -14249,7 +16517,7 @@
         <f t="shared" ref="A46:A49" si="3">A45+1</f>
         <v>3</v>
       </c>
-      <c r="B46" s="29"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="18" t="s">
         <v>187</v>
       </c>
@@ -14265,7 +16533,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B47" s="29"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="18" t="s">
         <v>207</v>
       </c>
@@ -14281,7 +16549,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B48" s="29"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
       <c r="E48" s="20"/>
@@ -14291,7 +16559,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B49" s="28"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
       <c r="E49" s="20"/>
@@ -14300,13 +16568,13 @@
       <c r="A50" s="17">
         <v>1</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="30" t="s">
         <v>193</v>
       </c>
       <c r="E50" s="20" t="s">
@@ -14318,9 +16586,9 @@
         <f t="shared" ref="A51:A54" si="4">A50+1</f>
         <v>2</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
       <c r="E51" s="20" t="s">
         <v>92</v>
       </c>
@@ -14330,7 +16598,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="B52" s="29"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
       <c r="E52" s="20"/>
@@ -14340,7 +16608,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B53" s="29"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
       <c r="E53" s="20"/>
@@ -14350,27 +16618,27 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B54" s="28"/>
+      <c r="B54" s="32"/>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
       <c r="E54" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B35:B43"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C50:C51"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="B12:B22"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B44:B49"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B35:B43"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E12" r:id="rId1" xr:uid="{D7C0BFF3-B3F3-48A9-BB84-3A69B6F96914}"/>
@@ -14412,7 +16680,126 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709ACE08-CFFB-46BD-8962-3AC85D967811}">
+  <dimension ref="A2:M33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C31"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M33"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{E462D67F-77B1-4A99-85C6-8EFBEA736B66}"/>
+    <hyperlink ref="A27" r:id="rId2" xr:uid="{13EC6E4E-833A-47F6-A895-468C0614229E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB521FDD-7C93-40FA-A868-E7A9F7C45B8D}">
+  <dimension ref="R5:S15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R5" s="29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="S6" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="S7" s="28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="S8" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="S10" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="S11" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="S12" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="S13" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="S14" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="S15" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767E5E60-3092-461D-BA45-0AC7B0E34119}">
   <dimension ref="A3:B60"/>
   <sheetViews>
@@ -14460,7 +16847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50281EC2-2146-458C-A9B1-32588ED0AD3E}">
   <dimension ref="A40:Q51"/>
   <sheetViews>
@@ -14557,7 +16944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A762D8-D5E0-417B-8E3B-22F80E7BD3DF}">
   <dimension ref="A2:B25"/>
   <sheetViews>
@@ -14713,7 +17100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830DC85E-A723-4C88-AF7E-DD59437A8500}">
   <dimension ref="A7:B259"/>
   <sheetViews>
@@ -15050,7 +17437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FAE497-2A20-465B-A979-722A0FFF1414}">
   <dimension ref="A5:A15"/>
   <sheetViews>
@@ -15117,7 +17504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397ECDEA-CCAA-4B2C-A79A-D0E5FB31AEDB}">
   <dimension ref="B32:D39"/>
   <sheetViews>
@@ -15220,7 +17607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D762D804-81FE-4E39-8550-245257113C76}">
   <dimension ref="A27:L206"/>
   <sheetViews>
@@ -15559,53 +17946,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
   <drawing r:id="rId14"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709ACE08-CFFB-46BD-8962-3AC85D967811}">
-  <dimension ref="A2:M33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C31"/>
-    </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.35">
-      <c r="M33"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{E462D67F-77B1-4A99-85C6-8EFBEA736B66}"/>
-    <hyperlink ref="A27" r:id="rId2" xr:uid="{13EC6E4E-833A-47F6-A895-468C0614229E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
-</worksheet>
 </file>